--- a/project/excel/hzb_metadata_schema.xlsx
+++ b/project/excel/hzb_metadata_schema.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sample" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SampleCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="device" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NamedThing" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sample" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SampleCollection" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +452,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -506,7 +543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/project/excel/hzb_metadata_schema.xlsx
+++ b/project/excel/hzb_metadata_schema.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="device" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NamedThing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sample" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SampleCollection" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="catalysisSample" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sample" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sampleCollection" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="namedThing" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +417,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,32 +446,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>sample_environment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>primary_email</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vital_status</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,73 +497,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>primary_email</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>birth_date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>age_in_years</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
@@ -567,4 +550,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/hzb_metadata_schema.xlsx
+++ b/project/excel/hzb_metadata_schema.xlsx
@@ -7,11 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="device" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="catalysisSample" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sample" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sampleCollection" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="namedThing" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Person" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scientist" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="device" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CatalysisSample" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sample" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SampleCollection" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Experiment" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Rockit_experiment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BESSY" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Myspot_Beamline" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Beamline" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BeamlineExperiment" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Organization" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="NamedThing" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,14 +426,247 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_employment_history</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Woman,Masculine,Diverse"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,7 +677,109 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_employment_history</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Woman,Masculine,Diverse"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +811,21 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>vital_status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -480,13 +839,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +872,21 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>vital_status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -526,7 +900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -552,20 +926,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/project/excel/hzb_metadata_schema.xlsx
+++ b/project/excel/hzb_metadata_schema.xlsx
@@ -7,20 +7,38 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Person" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Scientist" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="device" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CatalysisSample" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sample" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SampleCollection" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Experiment" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Rockit_experiment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="BESSY" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Myspot_Beamline" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Beamline" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="BeamlineExperiment" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Organization" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="NamedThing" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NamedEntity" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DataCite" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Person" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Project" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Device" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sample" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SampleCollection" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Scientist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="CatalysisSample" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Catalyst" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ThinFilmCatalyst" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="PowderCatalyst" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Recipe" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mixture" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Workflow" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Process" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Experiment" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Measurement" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Parameter" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Reaction" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="ReactionProduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Reactor" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="CatalysisSampleCollection" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="ReactionProductCollection" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Beamline" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="BeamlineExperiment" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="BeamlineScientist" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="mySpot" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="EMIL_Pink" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="EMIL_OAESE" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="SampleEnvironment" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="SamplePositioning" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +444,670 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -462,17 +1144,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>iri</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>iri</t>
         </is>
       </c>
     </row>
@@ -486,223 +1168,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>iri</t>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>primary_email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>gender</t>
         </is>
       </c>
@@ -713,17 +1282,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>iri</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>iri</t>
         </is>
       </c>
     </row>
@@ -737,34 +1306,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
         </is>
       </c>
     </row>
@@ -779,6 +1420,140 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -790,214 +1565,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sample_environment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>primary_email</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>birth_date</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_in_years</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>has_employment_history</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>iri</t>
+          <t>id</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>iri</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Woman,Masculine,Diverse"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1015,17 +1631,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
         </is>
       </c>
     </row>

--- a/project/excel/hzb_metadata_schema.xlsx
+++ b/project/excel/hzb_metadata_schema.xlsx
@@ -38,7 +38,9 @@
     <sheet name="EMIL_Pink" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="EMIL_OAESE" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="SampleEnvironment" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="SamplePositioning" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="EnvironmentDynamics" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="SamplePositioning" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="File" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,26 +842,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>identifierType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>creators</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ResourceType</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Contributor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>AlternateIdentifier</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>RelatedIdentifier</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Rights</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>GeoLocation</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>FundingReference</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>RelatedItem</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
         <is>
           <t>iri</t>
         </is>
@@ -1414,6 +1516,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
